--- a/Conditions.xlsx
+++ b/Conditions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boris\Documents\MATLAB\ИО\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boris\Documents\MATLAB\linprog_matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Химические элементы</t>
   </si>
   <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
     <t>Вещества</t>
   </si>
   <si>
@@ -63,6 +54,12 @@
   </si>
   <si>
     <t>Вещество 4</t>
+  </si>
+  <si>
+    <t>Количество сплава:</t>
+  </si>
+  <si>
+    <t>Элемент</t>
   </si>
 </sst>
 </file>
@@ -99,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -114,6 +111,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -397,138 +397,143 @@
   <dimension ref="C2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="9" width="18.77734375" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>150</v>
-      </c>
-      <c r="I6" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="D8" s="3">
+        <v>20000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
